--- a/medicine/Enfance/Printemps_(collection)/Printemps_(collection).xlsx
+++ b/medicine/Enfance/Printemps_(collection)/Printemps_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Collection Printemps est une collection de romans d’aventures pour la jeunesse éditée par les éditions de Montsouris. Au total, 342 volumes sont publiés entre 1928 et 1942. Ils sont signés par des auteurs de roman populaire connus ou familiers des seuls lecteurs de Guignol,  Lisette et Pierrot où nombre d’entre eux font l’objet d’une prépublication. Ces romans, illustrés par des dessinateurs chevronnés tels Étienne Le Rallic, Émile Dot, Louis Maîtrejean ou Henri Ferran, ont marqué l’imaginaire des adolescents des années 1920-1940[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Collection Printemps est une collection de romans d’aventures pour la jeunesse éditée par les éditions de Montsouris. Au total, 342 volumes sont publiés entre 1928 et 1942. Ils sont signés par des auteurs de roman populaire connus ou familiers des seuls lecteurs de Guignol,  Lisette et Pierrot où nombre d’entre eux font l’objet d’une prépublication. Ces romans, illustrés par des dessinateurs chevronnés tels Étienne Le Rallic, Émile Dot, Louis Maîtrejean ou Henri Ferran, ont marqué l’imaginaire des adolescents des années 1920-1940.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques des volumes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout au long de son existence la collection paraît à raison de deux fascicules par mois, le deuxième et le quatrième dimanche du mois, avec cependant quelques interruptions et irrégularités durant la Seconde Guerre Mondiale. Il existe pour les lecteurs une possibilité d’abonnement à la collection.
 Une première série de volumes est composée de fascicules agrafés comptant 64 pages, de format 16 x 11 cm, illustrés en couleur sur les plats 1 et 4 de couverture et en noir et blanc dans les pages intérieures. Il existe pour cette série des volumes de recueils à dos toilé, réunissant six volumes sous une couverture cartonnée mais sans les illustrations en couleur des couvertures initiales sinon deux d’entre elles choisies pour illustrer les premiers et quatrièmes plats de la reliure. Jusqu’au numéro 96 il arrive qu’un même roman s’étende sur la longueur de deux fascicules successifs.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Première série
-1-2 : Le Val tragique, Norbert Sevestre, ill. Étienne Le Rallic, 1928.
+          <t>Première série</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1-2 : Le Val tragique, Norbert Sevestre, ill. Étienne Le Rallic, 1928.
 3-4 : Linette et son poilu, Hélène Jean Babin, ill. Louis Maîtrejean, 1928.
 5-6 : Cœur de Turc, Paul Cervières, ill. Étienne Le Rallic, 1928.
 7 : Le Diamant vert, Gaël de Saillans, ill. Henri Ferran, 1928.
@@ -568,7 +587,7 @@
 25-26 : Une main dans l'ombre, Gaël de Saillans,  ill. Étienne Le Rallic, 1929.
 27 : L'Étranger aux lunettes bleues, André de Bréville, ill. Raymond de La Nézière, 1929.
 28-29 : La Terre des aïeux, Claude Renaudy, ill. Louis Maîtrejean, 1929.
-30-31 : Le Secret du rayon vert, Maria de Crisenoy, ill. Émile Dot, 1929[2].
+30-31 : Le Secret du rayon vert, Maria de Crisenoy, ill. Émile Dot, 1929.
 32 : Mission de scout, L. Liverani, ill. Étienne Le Rallic, 1929.
 33-34 : Smaïl, fils du désert, Yves Gohanne, ill. Louis Maîtrejean, 1929.
 35 : L'Épave mystérieuse, Jean du Cléguer, ill. Raymond de La Nézière, 1929.
@@ -724,7 +743,7 @@
 211 : L'Aigle aux yeux d’or, Jean de Belcayre, ill. Jean, 1936.
 212 : La Clef rouillée, Gaël de Saillans, ill. Georges Bourdin, 1936.
 213 : La Folle Ascension du Salak, Léon Lambry, ill. Jean, 1936.
-214 : L'Or maudit, Noël Tani, ill. Émile Dot[3], 1936.
+214 : L'Or maudit, Noël Tani, ill. Émile Dot, 1936.
 215 : Manuel le bandit, Maria de Crisenoy, ill. Étienne Le Rallic, 1936.
 216 : De prison en prison, Germaine Verdat, ill. Étienne Le Rallic, 1936.
 217 : Un Secret en danger, Ernest Fornel, ill. Henri Ferran, 1937.
@@ -733,16 +752,50 @@
 220 : La Maison cernée, Claude Renaudy, ill. Jean, 1937.
 221 : Sports d'hiver,  Th. Bernadie, ill. Étienne Le Rallic, 1937.
 222 : Rose-des-vents, Maria de Crisenoy, ill. Georges Bourdin, 1936.
-223 : Le Fanion vert, Noël Tani, ill. Raymond de la Nézière, 1937[4].
+223 : Le Fanion vert, Noël Tani, ill. Raymond de la Nézière, 1937.
 224 : Le Remplaçant, M. des Rousses, ill. N. Mengden, 1937.
 225 : Aller sans retour, Germaine Verdat, ill. Henri Ferran, 1937.
 226 : Le Document tragique, J. Delcou, ill. Étienne Le Rallic, 1937.
 227 : La Grotte aux empreintes, Gilles Hersay, ill. Henri Ferran, 1937.
 228 : Le Secret du temple hindou, E. Romazières, ill. Étienne Le Rallic, 1937.
 229 : Dans la brousse africaine, Jacques Labrunie, ill. Jean, 1937.
-230 : Deux destins, Jacques Angioux, ill. Émile Dot, 1937.
-Deuxième série
-231 : L'Île blanche, Claude Renaudy, ill. Jean, 1937.
+230 : Deux destins, Jacques Angioux, ill. Émile Dot, 1937.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Printemps_(collection)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Printemps_(collection)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titres de la collection</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deuxième série</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>231 : L'Île blanche, Claude Renaudy, ill. Jean, 1937.
 232 : Le Trésor de l’Atlas, Marguerite d'Urbal, ill. Henri Ferran, 1937.
 233 : Un drame dans les neiges, Gaël de Saillans, ill. Georges Bourdin, 1937.
 234 : Le Puits maudit, Ernest Fornel, ill. Étienne Le Rallic, 1937.
@@ -825,9 +878,43 @@
 311 : Linette s'envole, Hélène-Jean Babin, ill. Louis Maîtrejean, 1941.
 312 : Les Bandits de la forêt, Robert-Jean Boulan, ill. Étienne Le Rallic, 1941.
 313 : Prenez garde, Claude Renaudy, ill. Georges Bourdin, 1941.
-314 : Pôle nord, Norbert Sevestre, ill. Henry Le Monnier, 1941.
-Troisième série
-315 : La Ruche en émoi, J. de Chateaulin, ill. Alag, 1941.
+314 : Pôle nord, Norbert Sevestre, ill. Henry Le Monnier, 1941.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Printemps_(collection)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Printemps_(collection)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres de la collection</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Troisième série</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>315 : La Ruche en émoi, J. de Chateaulin, ill. Alag, 1941.
 316 : Montreur d'ours, René de Maguibal, ill. Étienne Le Rallic, 1941.
 317 : Les Écumeurs de la prairie, Georges Barbadaux, ill. Georges Bourdin, 1941.
 318 : Un si petit timbre, Georges Louza, 1941.
